--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H2">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I2">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J2">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N2">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O2">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P2">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q2">
-        <v>3.371033820476667</v>
+        <v>3.228228642633334</v>
       </c>
       <c r="R2">
-        <v>30.33930438429</v>
+        <v>29.0540577837</v>
       </c>
       <c r="S2">
-        <v>0.289745229855355</v>
+        <v>0.282429756960054</v>
       </c>
       <c r="T2">
-        <v>0.3196091295559758</v>
+        <v>0.2947939291730305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H3">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I3">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J3">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>15.971694</v>
       </c>
       <c r="O3">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P3">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q3">
-        <v>0.5198999352920001</v>
+        <v>0.65920505036</v>
       </c>
       <c r="R3">
-        <v>4.679099417628001</v>
+        <v>5.93284545324</v>
       </c>
       <c r="S3">
-        <v>0.04468615097776276</v>
+        <v>0.0576722229959972</v>
       </c>
       <c r="T3">
-        <v>0.04929193079154228</v>
+        <v>0.0601969898785766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H4">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I4">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J4">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N4">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O4">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P4">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q4">
-        <v>0.4244347032210001</v>
+        <v>0.36251264298</v>
       </c>
       <c r="R4">
-        <v>2.546608219326001</v>
+        <v>2.17507585788</v>
       </c>
       <c r="S4">
-        <v>0.03648077628184961</v>
+        <v>0.03171533648504871</v>
       </c>
       <c r="T4">
-        <v>0.02682722141514662</v>
+        <v>0.0220691775024132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,10 +732,10 @@
         <v>0.186177</v>
       </c>
       <c r="I5">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J5">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N5">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O5">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P5">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q5">
-        <v>2.142287954051667</v>
+        <v>1.617999041618333</v>
       </c>
       <c r="R5">
-        <v>19.280591586465</v>
+        <v>14.561991374565</v>
       </c>
       <c r="S5">
-        <v>0.1841327464271148</v>
+        <v>0.1415547430720723</v>
       </c>
       <c r="T5">
-        <v>0.203111218906694</v>
+        <v>0.1477517077253198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +794,10 @@
         <v>0.186177</v>
       </c>
       <c r="I6">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J6">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +812,10 @@
         <v>15.971694</v>
       </c>
       <c r="O6">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P6">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q6">
         <v>0.330395785982</v>
@@ -821,10 +824,10 @@
         <v>2.973562073838</v>
       </c>
       <c r="S6">
-        <v>0.02839799540755093</v>
+        <v>0.02890551192786779</v>
       </c>
       <c r="T6">
-        <v>0.03132496296098799</v>
+        <v>0.03017093357191556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,10 +856,10 @@
         <v>0.186177</v>
       </c>
       <c r="I7">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J7">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N7">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O7">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P7">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q7">
-        <v>0.2697277453785</v>
+        <v>0.181692554601</v>
       </c>
       <c r="R7">
-        <v>1.618366472271</v>
+        <v>1.090155327606</v>
       </c>
       <c r="S7">
-        <v>0.02318348961921994</v>
+        <v>0.01589583320082085</v>
       </c>
       <c r="T7">
-        <v>0.01704866706742768</v>
+        <v>0.011061145910372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -906,19 +909,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H8">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I8">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J8">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N8">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O8">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P8">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q8">
-        <v>1.709819118131667</v>
+        <v>3.141765371310556</v>
       </c>
       <c r="R8">
-        <v>10.25891470879</v>
+        <v>28.275888341795</v>
       </c>
       <c r="S8">
-        <v>0.1469614248260756</v>
+        <v>0.2748652987357618</v>
       </c>
       <c r="T8">
-        <v>0.1080724448634091</v>
+        <v>0.2868983151059911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -968,19 +971,19 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H9">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I9">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J9">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +998,22 @@
         <v>15.971694</v>
       </c>
       <c r="O9">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P9">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q9">
-        <v>0.263697991838</v>
+        <v>0.6415492299593334</v>
       </c>
       <c r="R9">
-        <v>1.582187951028</v>
+        <v>5.773943069634</v>
       </c>
       <c r="S9">
-        <v>0.02266522358612619</v>
+        <v>0.05612755884215244</v>
       </c>
       <c r="T9">
-        <v>0.01666754476031622</v>
+        <v>0.05858470362352368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H10">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I10">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J10">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N10">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O10">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P10">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q10">
-        <v>0.2152771549065</v>
+        <v>0.352803284543</v>
       </c>
       <c r="R10">
-        <v>0.861108619626</v>
+        <v>2.116819707258</v>
       </c>
       <c r="S10">
-        <v>0.01850338265730326</v>
+        <v>0.03086588867723697</v>
       </c>
       <c r="T10">
-        <v>0.009071341019747454</v>
+        <v>0.02147808762201825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1083,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H11">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I11">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J11">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N11">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O11">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P11">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q11">
-        <v>1.865355549994445</v>
+        <v>0.3621654342983334</v>
       </c>
       <c r="R11">
-        <v>16.78819994995</v>
+        <v>2.17299260579</v>
       </c>
       <c r="S11">
-        <v>0.1603300059797912</v>
+        <v>0.03168496005437014</v>
       </c>
       <c r="T11">
-        <v>0.1768551415962453</v>
+        <v>0.02204804000507493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H12">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I12">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J12">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1184,22 @@
         <v>15.971694</v>
       </c>
       <c r="O12">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P12">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q12">
-        <v>0.2876857015933333</v>
+        <v>0.073954267118</v>
       </c>
       <c r="R12">
-        <v>2.58917131434</v>
+        <v>0.443725602708</v>
       </c>
       <c r="S12">
-        <v>0.0247270019149416</v>
+        <v>0.006470076317536723</v>
       </c>
       <c r="T12">
-        <v>0.02727560195730817</v>
+        <v>0.004502214970135722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1207,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H13">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I13">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J13">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1240,214 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N13">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O13">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P13">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q13">
-        <v>0.234860185755</v>
+        <v>0.040669222449</v>
       </c>
       <c r="R13">
-        <v>1.40916111453</v>
+        <v>0.162676889796</v>
       </c>
       <c r="S13">
-        <v>0.02018657246690915</v>
+        <v>0.003558049904004293</v>
       </c>
       <c r="T13">
-        <v>0.01484479510519937</v>
+        <v>0.001650583883519205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.038218</v>
+      </c>
+      <c r="I14">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J14">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>26.07194833333334</v>
+      </c>
+      <c r="N14">
+        <v>78.215845</v>
+      </c>
+      <c r="O14">
+        <v>0.7595928012803946</v>
+      </c>
+      <c r="P14">
+        <v>0.7818221335728009</v>
+      </c>
+      <c r="Q14">
+        <v>0.3321392404677778</v>
+      </c>
+      <c r="R14">
+        <v>2.98925316421</v>
+      </c>
+      <c r="S14">
+        <v>0.02905804245813639</v>
+      </c>
+      <c r="T14">
+        <v>0.0303301415633847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.038218</v>
+      </c>
+      <c r="I15">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J15">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.323898</v>
+      </c>
+      <c r="N15">
+        <v>15.971694</v>
+      </c>
+      <c r="O15">
+        <v>0.155109029208254</v>
+      </c>
+      <c r="P15">
+        <v>0.1596482641062294</v>
+      </c>
+      <c r="Q15">
+        <v>0.06782291125466666</v>
+      </c>
+      <c r="R15">
+        <v>0.610406201292</v>
+      </c>
+      <c r="S15">
+        <v>0.005933659124699889</v>
+      </c>
+      <c r="T15">
+        <v>0.006193422062077856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.038218</v>
+      </c>
+      <c r="I16">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J16">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.927739</v>
+      </c>
+      <c r="N16">
+        <v>5.855478</v>
+      </c>
+      <c r="O16">
+        <v>0.08529816951135136</v>
+      </c>
+      <c r="P16">
+        <v>0.05852960232096958</v>
+      </c>
+      <c r="Q16">
+        <v>0.037297443034</v>
+      </c>
+      <c r="R16">
+        <v>0.223784658204</v>
+      </c>
+      <c r="S16">
+        <v>0.003263061244240541</v>
+      </c>
+      <c r="T16">
+        <v>0.002270607402646928</v>
       </c>
     </row>
   </sheetData>
